--- a/Data/Output/Question2.xlsx
+++ b/Data/Output/Question2.xlsx
@@ -5,17 +5,17 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10a\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10aa\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86510CBD-00BC-4BEF-A65F-40F995A5BF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88DF077-ACB8-4A94-A09F-3971892319FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3930" yWindow="3540" windowWidth="18000" windowHeight="9360" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NSE" sheetId="2" r:id="rId1"/>
-    <x:sheet name="NSE1" sheetId="5" r:id="rId2"/>
-    <x:sheet name="NSE2" sheetId="6" r:id="rId3"/>
+    <x:sheet name="NSE1" sheetId="6" r:id="rId2"/>
+    <x:sheet name="NSE2" sheetId="7" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>INFY</x:t>
   </x:si>
@@ -194,6 +194,72 @@
   </x:si>
   <x:si>
     <x:t>258.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CompanyCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CompanyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PrevClose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FaceValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WeeksHigh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191.47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197.77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,248.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,302.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,358.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,792.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,844.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>557.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>579.90</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -533,7 +599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{38B74EC4-B594-4E98-B84F-F295730C5889}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -793,70 +859,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{08B8CDE9-F137-4D98-967C-846B1AB48D44}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E11"/>
+  <x:dimension ref="A1:E13"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="M26" sqref="M26"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -864,7 +928,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>26</x:v>
@@ -873,83 +937,83 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="s">
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="0" t="s">
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="0" t="s">
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>13</x:v>
@@ -958,7 +1022,7 @@
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -966,7 +1030,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>26</x:v>
@@ -975,7 +1039,7 @@
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -983,12 +1047,46 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
@@ -1002,219 +1100,251 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{0B63BC6A-261B-4E8D-B009-572FDB34BB74}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:E14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F14" sqref="F14 A1:F14"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="0" t="s">
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="0" t="s">
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="0" t="s">
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="B13" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="E13" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="0" t="s">
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="B14" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>

--- a/Data/Output/Question2.xlsx
+++ b/Data/Output/Question2.xlsx
@@ -211,6 +211,18 @@
     <x:t>WeeksHigh</x:t>
   </x:si>
   <x:si>
+    <x:t>1,792.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,844.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,302.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,358.75</x:t>
+  </x:si>
+  <x:si>
     <x:t>27.21</x:t>
   </x:si>
   <x:si>
@@ -220,46 +232,34 @@
     <x:t>197.77</x:t>
   </x:si>
   <x:si>
+    <x:t>244.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,248.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>557.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>579.90</x:t>
+  </x:si>
+  <x:si>
     <x:t>82.79</x:t>
   </x:si>
   <x:si>
-    <x:t>244.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85.69</x:t>
-  </x:si>
-  <x:si>
     <x:t>1.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,248.65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64.48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,302.40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,358.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,792.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,844.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>557.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>579.90</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -888,104 +888,104 @@
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>13</x:v>
@@ -1013,7 +1013,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>13</x:v>
@@ -1030,7 +1030,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>26</x:v>
@@ -1047,7 +1047,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>13</x:v>
@@ -1064,13 +1064,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>13</x:v>
@@ -1135,13 +1135,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,13 +1152,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,13 +1169,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
@@ -1203,13 +1203,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>26</x:v>
@@ -1237,7 +1237,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>26</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>26</x:v>
@@ -1271,7 +1271,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>8</x:v>
@@ -1288,7 +1288,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>13</x:v>
@@ -1305,7 +1305,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>13</x:v>
@@ -1322,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>26</x:v>
@@ -1339,7 +1339,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>13</x:v>

--- a/Data/Output/Question2.xlsx
+++ b/Data/Output/Question2.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_10aa\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88DF077-ACB8-4A94-A09F-3971892319FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC2359-4784-460E-AD10-382126ED8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="NSE" sheetId="2" r:id="rId1"/>
-    <x:sheet name="NSE1" sheetId="6" r:id="rId2"/>
-    <x:sheet name="NSE2" sheetId="7" r:id="rId3"/>
+    <x:sheet name="NSE1" sheetId="6" r:id="rId1"/>
+    <x:sheet name="NSE2" sheetId="7" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -23,7 +22,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <x:si>
+    <x:t>CompanyCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CompanyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PrevClose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FaceValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WeeksHigh</x:t>
+  </x:si>
   <x:si>
     <x:t>INFY</x:t>
   </x:si>
@@ -31,13 +45,13 @@
     <x:t>Infosys Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>1,707.05</x:t>
+    <x:t>1,792.95</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>1,737.90</x:t>
+    <x:t>70.46</x:t>
   </x:si>
   <x:si>
     <x:t>TCS</x:t>
@@ -46,13 +60,13 @@
     <x:t>Tata Consultancy Services Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>4,169.20</x:t>
+    <x:t>4,302.40</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>4,254.75</x:t>
+    <x:t>15.27</x:t>
   </x:si>
   <x:si>
     <x:t>WIPRO</x:t>
@@ -61,13 +75,13 @@
     <x:t>Wipro Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>559.70</x:t>
+    <x:t>557.20</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>566.90</x:t>
+    <x:t>344.79</x:t>
   </x:si>
   <x:si>
     <x:t>SOUTHBANK</x:t>
@@ -76,190 +90,160 @@
     <x:t>The South Indian Bank Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>26.56</x:t>
+    <x:t>27.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEDERALBNK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Federal Bank  Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191.47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPIC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Southern Petrochemicals Industries Corporation  Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FSL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firstsource Solutions Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNITEDPOLY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United Polyfab Gujarat Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIVIDHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Visagar Polytex Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IVC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IL&amp;FS Investment Managers Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICIBANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICI Bank Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,248.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IOB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indian Overseas Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CANBK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canara Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,844.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,358.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>579.90</x:t>
   </x:si>
   <x:si>
     <x:t>37.18</x:t>
   </x:si>
   <x:si>
-    <x:t>FEDERALBNK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Federal Bank  Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Southern Petrochemicals Industries Corporation  Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87.37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
+    <x:t>197.77</x:t>
   </x:si>
   <x:si>
     <x:t>107.50</x:t>
   </x:si>
   <x:si>
-    <x:t>UNITEDPOLY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>United Polyfab Gujarat Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88.27</x:t>
+    <x:t>258.95</x:t>
   </x:si>
   <x:si>
     <x:t>122.50</x:t>
   </x:si>
   <x:si>
-    <x:t>VIVIDHA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Visagar Polytex Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.17</x:t>
-  </x:si>
-  <x:si>
     <x:t>2.10</x:t>
   </x:si>
   <x:si>
-    <x:t>IVC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IL&amp;FS Investment Managers Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.85</x:t>
-  </x:si>
-  <x:si>
     <x:t>14.75</x:t>
   </x:si>
   <x:si>
-    <x:t>ICICIBANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICICI Bank Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,229.95</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,257.80</x:t>
   </x:si>
   <x:si>
-    <x:t>ICICI500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indian Overseas Bank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68.42</x:t>
-  </x:si>
-  <x:si>
     <x:t>83.75</x:t>
   </x:si>
   <x:si>
-    <x:t>CANBK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canara Bank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117.25</x:t>
-  </x:si>
-  <x:si>
     <x:t>128.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FSL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firstsource Solutions Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>252.98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CompanyCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CompanyName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PrevClose</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FaceValue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WeeksHigh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,792.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,844.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,302.40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,358.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191.47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197.77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,248.65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64.48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>557.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>579.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82.79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.10</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -599,15 +583,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{38B74EC4-B594-4E98-B84F-F295730C5889}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{08B8CDE9-F137-4D98-967C-846B1AB48D44}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:E14"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B24" sqref="B24"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
@@ -673,41 +655,41 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>27</x:v>
@@ -724,129 +706,129 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -859,247 +841,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{08B8CDE9-F137-4D98-967C-846B1AB48D44}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E13"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{0B63BC6A-261B-4E8D-B009-572FDB34BB74}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,240 +853,240 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/Question2.xlsx
+++ b/Data/Output/Question2.xlsx
@@ -51,7 +51,7 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>70.46</x:t>
+    <x:t>84.62</x:t>
   </x:si>
   <x:si>
     <x:t>TCS</x:t>
@@ -66,7 +66,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>15.27</x:t>
+    <x:t>18.96</x:t>
   </x:si>
   <x:si>
     <x:t>WIPRO</x:t>
@@ -81,7 +81,7 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>344.79</x:t>
+    <x:t>380.07</x:t>
   </x:si>
   <x:si>
     <x:t>SOUTHBANK</x:t>
@@ -93,7 +93,7 @@
     <x:t>27.21</x:t>
   </x:si>
   <x:si>
-    <x:t>159.28</x:t>
+    <x:t>178.11</x:t>
   </x:si>
   <x:si>
     <x:t>FEDERALBNK</x:t>
@@ -105,7 +105,7 @@
     <x:t>191.47</x:t>
   </x:si>
   <x:si>
-    <x:t>143.22</x:t>
+    <x:t>184.42</x:t>
   </x:si>
   <x:si>
     <x:t>SPIC</x:t>
@@ -120,7 +120,7 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>42.79</x:t>
+    <x:t>45.75</x:t>
   </x:si>
   <x:si>
     <x:t>FSL</x:t>
@@ -132,7 +132,7 @@
     <x:t>244.69</x:t>
   </x:si>
   <x:si>
-    <x:t>18.15</x:t>
+    <x:t>20.67</x:t>
   </x:si>
   <x:si>
     <x:t>UNITEDPOLY</x:t>
@@ -144,7 +144,7 @@
     <x:t>85.69</x:t>
   </x:si>
   <x:si>
-    <x:t>0.04</x:t>
+    <x:t>0.05</x:t>
   </x:si>
   <x:si>
     <x:t>VIVIDHA</x:t>
@@ -156,7 +156,7 @@
     <x:t>1.10</x:t>
   </x:si>
   <x:si>
-    <x:t>-</x:t>
+    <x:t>2.81</x:t>
   </x:si>
   <x:si>
     <x:t>IVC</x:t>
@@ -168,7 +168,7 @@
     <x:t>12.66</x:t>
   </x:si>
   <x:si>
-    <x:t>8.13</x:t>
+    <x:t>8.90</x:t>
   </x:si>
   <x:si>
     <x:t>ICICIBANK</x:t>
@@ -180,7 +180,7 @@
     <x:t>1,248.65</x:t>
   </x:si>
   <x:si>
-    <x:t>64.55</x:t>
+    <x:t>99.59</x:t>
   </x:si>
   <x:si>
     <x:t>IOB</x:t>
@@ -192,7 +192,7 @@
     <x:t>64.48</x:t>
   </x:si>
   <x:si>
-    <x:t>247.30</x:t>
+    <x:t>265.91</x:t>
   </x:si>
   <x:si>
     <x:t>CANBK</x:t>
@@ -204,7 +204,7 @@
     <x:t>112.89</x:t>
   </x:si>
   <x:si>
-    <x:t>183.02</x:t>
+    <x:t>215.19</x:t>
   </x:si>
   <x:si>
     <x:t>1,844.00</x:t>

--- a/Data/Output/Question2.xlsx
+++ b/Data/Output/Question2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>CompanyCode</x:t>
   </x:si>
@@ -207,43 +207,82 @@
     <x:t>215.19</x:t>
   </x:si>
   <x:si>
-    <x:t>1,844.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,358.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>579.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197.77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,257.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128.90</x:t>
+    <x:t>1,852.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,397.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>178.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,210.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279.44</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -876,13 +915,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +932,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,13 +949,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +966,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,13 +983,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,13 +1000,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,13 +1017,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,13 +1034,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,13 +1051,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,13 +1068,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,13 +1085,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,13 +1102,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,13 +1119,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
